--- a/database/industries/felezat/fasmin/product/yearly_seprated.xlsx
+++ b/database/industries/felezat/fasmin/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F501F0-EA5F-413A-9D21-B8650AB76C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39A1394-C5FB-4B96-AC63-E8412F24FB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -661,12 +661,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -676,7 +676,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -688,7 +688,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -700,7 +700,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -710,7 +710,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -744,7 +744,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -766,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -776,7 +776,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -788,7 +788,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -836,7 +836,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -860,7 +860,7 @@
         <v>9871</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -884,7 +884,7 @@
         <v>10904</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -932,7 +932,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>19</v>
       </c>
@@ -954,7 +954,7 @@
         <v>25911</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -966,7 +966,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>11</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>15</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>28890</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>22</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>23</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>28890</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>24</v>
       </c>
@@ -1096,7 +1096,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>11</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>21</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>18089</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>22</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>26</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>18089</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>27</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>29</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>30</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>72890</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1316,7 +1316,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1326,7 +1326,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1336,7 +1336,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>31</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1368,7 +1368,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>32</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>11</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>14</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>1424326</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>15</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>7602733</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>16</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>955312</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>17</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>18</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>409148</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>19</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>10391519</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>34</v>
       </c>
@@ -1558,7 +1558,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>11</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>15</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>21404258</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>21</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>22</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>23</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>21404258</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>35</v>
       </c>
@@ -1688,7 +1688,7 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>11</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>21</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>16</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>22</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>25</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="16" t="s">
         <v>26</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>27</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="16" t="s">
         <v>29</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>78143</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
         <v>30</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>31915720</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1910,7 +1910,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1920,7 +1920,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1930,7 +1930,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>36</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1962,7 +1962,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>37</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>11</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>14</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>323784042</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>15</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>770208996</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>16</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>87611152</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>17</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>18</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>555153324</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>39</v>
       </c>
@@ -2130,7 +2130,7 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>11</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>15</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>740888127</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>21</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>22</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>40</v>
       </c>
@@ -2238,7 +2238,7 @@
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>11</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>21</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>16</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>2310797</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>22</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>25</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2368,7 +2368,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2378,7 +2378,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2388,7 +2388,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>41</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2420,7 +2420,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>42</v>
       </c>
@@ -2432,7 +2432,7 @@
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>11</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>14</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>-726018</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>15</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>-3333808</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>16</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>-615624</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>17</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="12" t="s">
         <v>18</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>-369906</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="14" t="s">
         <v>43</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>-5045356</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>44</v>
       </c>
@@ -2610,7 +2610,7 @@
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>11</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>15</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>-9077680</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>21</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="12" t="s">
         <v>22</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>45</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>-9077680</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>46</v>
       </c>
@@ -2740,7 +2740,7 @@
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>11</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="12" t="s">
         <v>21</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>16</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>-71913</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="12" t="s">
         <v>22</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>25</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="16" t="s">
         <v>47</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>-71913</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="14" t="s">
         <v>27</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="16" t="s">
         <v>29</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="14" t="s">
         <v>30</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>-14194949</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2962,7 +2962,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2972,7 +2972,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2982,7 +2982,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>48</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3014,7 +3014,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>49</v>
       </c>
@@ -3026,7 +3026,7 @@
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>11</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="12" t="s">
         <v>14</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>698308</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>15</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>4268925</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="12" t="s">
         <v>16</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>339688</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>17</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="12" t="s">
         <v>18</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>39242</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
         <v>50</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>5346163</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>51</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>11</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="12" t="s">
         <v>15</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>12326578</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>21</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="12" t="s">
         <v>22</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="14" t="s">
         <v>52</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>12326578</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>53</v>
       </c>
@@ -3334,7 +3334,7 @@
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>11</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="12" t="s">
         <v>21</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>16</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>-30113</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="12" t="s">
         <v>22</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>25</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="16" t="s">
         <v>54</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>-30113</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="14" t="s">
         <v>30</v>
       </c>
